--- a/data/trans_dic/P29_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29_R2_2023-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2242130116365164</v>
+        <v>0.2242130116365163</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.03692295794053456</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1956970153017524</v>
+        <v>0.1944349784897701</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02727954386966121</v>
+        <v>0.02690858864277115</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1114373698328788</v>
+        <v>0.1120018433782242</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2563141979395804</v>
+        <v>0.2561423428432488</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0488767442268962</v>
+        <v>0.04878566254145961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1457527849945336</v>
+        <v>0.1429772650087618</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.02866057582332682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09870234108744366</v>
+        <v>0.09870234108744372</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1475685318471572</v>
+        <v>0.1492013473578767</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02148880942831325</v>
+        <v>0.02118247539261838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08610281282394312</v>
+        <v>0.0867900116676923</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1949483135883087</v>
+        <v>0.1961204799253463</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03787432776187559</v>
+        <v>0.03976245697685152</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.112483290398692</v>
+        <v>0.1123026303014071</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1059280219819507</v>
+        <v>0.1059280219819506</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02848334129193161</v>
+        <v>0.0284833412919316</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.0669650418722115</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0863091263492364</v>
+        <v>0.08436795548639578</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01968931594169546</v>
+        <v>0.02045741550492059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05540572049729078</v>
+        <v>0.0564440680011802</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1318687278822616</v>
+        <v>0.1298628514610708</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03979339241114001</v>
+        <v>0.03960751219713304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08081868552104686</v>
+        <v>0.08084448649874375</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.03474627588023063</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09322656047532571</v>
+        <v>0.09322656047532568</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1368909827121292</v>
+        <v>0.1368238881372992</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02631990270870863</v>
+        <v>0.02654217642176509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08235985000304451</v>
+        <v>0.08127742216320738</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1823118640339156</v>
+        <v>0.1832015496629991</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04723299692808699</v>
+        <v>0.04645451210957296</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1051519058940045</v>
+        <v>0.1055885053517203</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.03206753535486157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09575334199999641</v>
+        <v>0.0957533419999964</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1499647344990363</v>
+        <v>0.1517920886448285</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0275737690103387</v>
+        <v>0.02773340642727296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08964058213669704</v>
+        <v>0.08919326331497511</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.175233472421133</v>
+        <v>0.1758289925390184</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03726779689148163</v>
+        <v>0.03755592366352876</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1018259326698012</v>
+        <v>0.1030039939129263</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>134811</v>
+        <v>133941</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19980</v>
+        <v>19709</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>158387</v>
+        <v>159189</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>176568</v>
+        <v>176450</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35799</v>
+        <v>35732</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>207160</v>
+        <v>203215</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>154612</v>
+        <v>156323</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22976</v>
+        <v>22649</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>182275</v>
+        <v>183730</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>204254</v>
+        <v>205482</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40496</v>
+        <v>42515</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>238121</v>
+        <v>237739</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>69016</v>
+        <v>67464</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15941</v>
+        <v>16563</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>89163</v>
+        <v>90834</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>105447</v>
+        <v>103843</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32218</v>
+        <v>32068</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>130059</v>
+        <v>130101</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>135380</v>
+        <v>135314</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29362</v>
+        <v>29610</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>173331</v>
+        <v>171053</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>180300</v>
+        <v>181180</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52693</v>
+        <v>51824</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>221298</v>
+        <v>222217</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>528657</v>
+        <v>535099</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>102764</v>
+        <v>103359</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>650081</v>
+        <v>646837</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>617735</v>
+        <v>619834</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>138893</v>
+        <v>139966</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>738451</v>
+        <v>746994</v>
       </c>
     </row>
     <row r="24">
